--- a/biology/Médecine/Pierre_Mauriac/Pierre_Mauriac.xlsx
+++ b/biology/Médecine/Pierre_Mauriac/Pierre_Mauriac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Mauriac, né le 21 novembre 1882 et mort le 1er novembre 1963 à Bordeaux, est un médecin français, doyen de la Faculté de médecine de Bordeaux et le frère de François Mauriac.
 </t>
@@ -511,19 +523,21 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le frère le plus proche de François Mauriac[1].
-En 1905, il devient interne des hôpitaux et soutient sa thèse en 1909 sur la sérologie de la syphilis[2].
-Après la Première Guerre mondiale, il rejoint l'Action française en intervenant à l'Institut d'Action française[3] et en participant aux banquets des médecins d'Action française[4].
-De 1920 à 1930, il dirige le laboratoire central de l’hôpital Saint-André[5]. En 1931, il obtient la chaire de clinique médicale[5].
-Pendant la condamnation de l'Action française par l'Église, il ne va pas au banc de communion pendant quatre ans et se souvient d'un enterrement où un prêtre ami de l'Action française survola la tombe en avion pour donner sa bénédiction au mort[6].
-Il est doyen de la Faculté de médecine de Bordeaux de 1936 à 1944[7].
-Il est élu correspondant national pour la division de médecine le 26 janvier 1937[7].
-Pendant la Seconde Guerre mondiale, il découvre son frère abbé Jean Mauriac suicidé. Il n'aurait pas supporté l'exécution d'élèves pratiquants entrés en Résistance par des soldats nazis[1].
-La première réunion de la Légion d'Aquitaine de la jeunesse française, organisation maréchaliste, tenue le 11 août 1941 à l'Athénée, fut honorée de la présence de Pierre Mauriac[8].
-Le 30 janvier 1942, lors de la réunion des présidents et délégués des conseils départementaux de la zone occupée à Paris, Pierre Mauriac souhaite « que l’élimination des métèques hors du corps médical soit poursuivie sans faiblesse »[9].
-À la Libération, François Mauriac obtient du général de Gaulle « un jugement clément à l’égard de son frère accusé de collaboration »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le frère le plus proche de François Mauriac.
+En 1905, il devient interne des hôpitaux et soutient sa thèse en 1909 sur la sérologie de la syphilis.
+Après la Première Guerre mondiale, il rejoint l'Action française en intervenant à l'Institut d'Action française et en participant aux banquets des médecins d'Action française.
+De 1920 à 1930, il dirige le laboratoire central de l’hôpital Saint-André. En 1931, il obtient la chaire de clinique médicale.
+Pendant la condamnation de l'Action française par l'Église, il ne va pas au banc de communion pendant quatre ans et se souvient d'un enterrement où un prêtre ami de l'Action française survola la tombe en avion pour donner sa bénédiction au mort.
+Il est doyen de la Faculté de médecine de Bordeaux de 1936 à 1944.
+Il est élu correspondant national pour la division de médecine le 26 janvier 1937.
+Pendant la Seconde Guerre mondiale, il découvre son frère abbé Jean Mauriac suicidé. Il n'aurait pas supporté l'exécution d'élèves pratiquants entrés en Résistance par des soldats nazis.
+La première réunion de la Légion d'Aquitaine de la jeunesse française, organisation maréchaliste, tenue le 11 août 1941 à l'Athénée, fut honorée de la présence de Pierre Mauriac.
+Le 30 janvier 1942, lors de la réunion des présidents et délégués des conseils départementaux de la zone occupée à Paris, Pierre Mauriac souhaite « que l’élimination des métèques hors du corps médical soit poursuivie sans faiblesse ».
+À la Libération, François Mauriac obtient du général de Gaulle « un jugement clément à l’égard de son frère accusé de collaboration ».
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hépatomégalies et frictions mercurielles (1909)
 Un grand médecin français, le Bordelais Pierre Desault (1675-1737) (1923)
@@ -606,10 +622,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1914-1918
- Chevalier de la Légion d'honneur[2]</t>
+ Chevalier de la Légion d'honneur</t>
         </is>
       </c>
     </row>
